--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>ASISTENCIA AREA DE PRODUCCIÓN</t>
   </si>
   <si>
-    <t>PERIODO DEL 11 AL 25 DE JUNIO DEL AÑO 2023</t>
+    <t>PERIODO DEL 26 AL 10 DE JULIO  DEL AÑO 2023</t>
   </si>
   <si>
     <t>CONSTRUMAS S.A DE C.V.</t>
@@ -28,7 +28,7 @@
     <t>SISTEMA v1.0</t>
   </si>
   <si>
-    <t>CREADO EL: 2023-06-26</t>
+    <t>CREADO EL: 2023-06-10</t>
   </si>
   <si>
     <t>_____________</t>
@@ -85,67 +85,40 @@
     <t>FIJO</t>
   </si>
   <si>
-    <t>DIA 11:</t>
+    <t>DIA 26:</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>DIA 12:</t>
+    <t>DIA 27:</t>
   </si>
   <si>
     <t>---</t>
   </si>
   <si>
-    <t>DIA 13:</t>
-  </si>
-  <si>
-    <t>DIA 14:</t>
+    <t>DIA 28:</t>
   </si>
   <si>
     <t>INC</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>DIA 15:</t>
-  </si>
-  <si>
-    <t>VAC.</t>
-  </si>
-  <si>
-    <t>DIA 16:</t>
+    <t>DIA 29:</t>
+  </si>
+  <si>
+    <t>DIA 30:</t>
   </si>
   <si>
     <t>PCG</t>
   </si>
   <si>
-    <t>DIA 17:</t>
-  </si>
-  <si>
-    <t>DIA 18:</t>
-  </si>
-  <si>
-    <t>DIA 19:</t>
-  </si>
-  <si>
-    <t>DIA 20:</t>
-  </si>
-  <si>
-    <t>DIA 21:</t>
-  </si>
-  <si>
-    <t>DIA 22:</t>
-  </si>
-  <si>
-    <t>DIA 23:</t>
-  </si>
-  <si>
-    <t>DIA 24:</t>
-  </si>
-  <si>
-    <t>DIA 25:</t>
+    <t>DIA 31:</t>
+  </si>
+  <si>
+    <t>DIA 1:</t>
+  </si>
+  <si>
+    <t>DIA 2:</t>
   </si>
 </sst>
 </file>
@@ -518,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +504,7 @@
     <col min="5" max="21" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -570,43 +543,22 @@
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -626,13 +578,13 @@
         <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>26</v>
@@ -640,29 +592,8 @@
       <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -679,7 +610,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
@@ -696,29 +627,8 @@
       <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -732,49 +642,28 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -788,7 +677,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>24</v>
@@ -797,36 +686,15 @@
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
